--- a/SMAIG.xlsx
+++ b/SMAIG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinaypatel/Downloads/SMAIG20/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R stuff\smaig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBA718A-22E6-2F4F-8AD2-D9F9FF2982B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1514727-A550-4557-B97E-6DF6A60AE6B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36740" yWindow="460" windowWidth="30060" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26535" yWindow="5745" windowWidth="26115" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -371,12 +371,12 @@
   <dimension ref="A1:E529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1270" sqref="H1270"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,177 +393,177 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>-1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
         <v>-2</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>-2</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>-2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>-2</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>-1</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>-2</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>-2</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>-2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>-3</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>-2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>-3</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>-2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>-3</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>-2</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>-3</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>-3</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>-3</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>-4</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>-3</v>
-      </c>
       <c r="E11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -614,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -665,7 +665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -682,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -699,7 +699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -716,7 +716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -750,24 +750,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
-        <v>-62.103209999999997</v>
+        <v>-19.863710000000001</v>
       </c>
       <c r="C23">
-        <v>-27.831050000000001</v>
+        <v>59.034419999999997</v>
       </c>
       <c r="D23">
-        <v>-8.0706299999999995</v>
+        <v>-0.63226000000000004</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -852,7 +852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -869,7 +869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -920,7 +920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -937,7 +937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>6</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>6</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>6</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>6</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>7</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>7</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>7</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>7</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>7</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>7</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>7</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>7</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>8</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>8</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>8</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>8</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>8</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>8</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>8</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>8</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>8</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>8</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>9</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>9</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>9</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>9</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>9</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>9</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>9</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>9</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>9</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>9</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>10</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>10</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>10</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>10</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>10</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>10</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>10</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>10</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>10</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>10</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>10</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>11</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>11</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>11</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>11</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>11</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>11</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>11</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>11</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>11</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>11</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>11</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>12</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>12</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>12</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>12</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>12</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>12</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>12</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>12</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>12</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>12</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>12</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>13</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>13</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>13</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>13</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>13</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>13</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>13</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>13</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>13</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>13</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>13</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>14</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>14</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>14</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>14</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>14</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>14</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>14</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>14</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>14</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>14</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>15</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>15</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>15</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>15</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>15</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>15</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>15</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>15</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>15</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>15</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>15</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>16</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>16</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>16</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>16</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>16</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>16</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>16</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>16</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>16</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>16</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>16</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>17</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>17</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>17</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>17</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>17</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>17</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>17</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>17</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>17</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>17</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>17</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>18</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>18</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>18</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>18</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>18</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>18</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>18</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>18</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>18</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>18</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>18</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>19</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>19</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>19</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>19</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>19</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>19</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>19</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>19</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>19</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>19</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>19</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>20</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>20</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>20</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>20</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>20</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>20</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>20</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>20</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>20</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>20</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>20</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>21</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>21</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>21</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>21</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>21</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>21</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>21</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>21</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>21</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>21</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>21</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>22</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>22</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>22</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>22</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>22</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>22</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>22</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>22</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>22</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>22</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>22</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>23</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>23</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>23</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>23</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>23</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>23</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>23</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>23</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>23</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>23</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>23</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>24</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>24</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>24</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>24</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>24</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>24</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>24</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>24</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>24</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>24</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>24</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>25</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>25</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>25</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>25</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>25</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>25</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>25</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>25</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>25</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>25</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>25</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>26</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>26</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>26</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>26</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>26</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>26</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>26</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>26</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>26</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>26</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>26</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>27</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>27</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>27</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>27</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>27</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>27</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>27</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>27</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>27</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>27</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>27</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>28</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>28</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>28</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>28</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>28</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>28</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>28</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>28</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>28</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>28</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>28</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>29</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>29</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>29</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>29</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>29</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>29</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>29</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>29</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>29</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>29</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>29</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>30</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>30</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>30</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>30</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>30</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>30</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>30</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>30</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>30</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>30</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>30</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>31</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>31</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>31</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>31</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>31</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>31</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>31</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>31</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>31</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>31</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>31</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>32</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>32</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>32</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>32</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>32</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>32</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>32</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>32</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>32</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>32</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>32</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>33</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>33</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>33</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>33</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>33</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>33</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>33</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>33</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>33</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>33</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>33</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>34</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>34</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>34</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>34</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>34</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>34</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>34</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>34</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>34</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>34</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>34</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>35</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>35</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>35</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>35</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>35</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>35</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>35</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>35</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>35</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>35</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>35</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>36</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>36</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>36</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>36</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>36</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>36</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>36</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>36</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>36</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>36</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>36</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>37</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>37</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>37</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>37</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>37</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>37</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>37</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>37</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>37</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>37</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>37</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>38</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>38</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>38</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>38</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>38</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>38</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>38</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>38</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>38</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>38</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>38</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>39</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>39</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>39</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>39</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>39</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>39</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>39</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>39</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>39</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>39</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>39</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>40</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>40</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>40</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>40</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>40</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>40</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>40</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>40</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>40</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>40</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>40</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>41</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>41</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>41</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>41</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>41</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>41</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>41</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>41</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>41</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>41</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>41</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>42</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>42</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>42</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>42</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>42</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>42</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>42</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>42</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>42</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>42</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>42</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>43</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>43</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>43</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>43</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>43</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>43</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>43</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>43</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>43</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>43</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>43</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>44</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>44</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>44</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>44</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>44</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>44</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>44</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>44</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>44</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>44</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>44</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>45</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>45</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>45</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>45</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>45</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>45</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>45</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>45</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>45</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>45</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>45</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>46</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>46</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>46</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>46</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>46</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>46</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>46</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>46</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>46</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>46</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>46</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>47</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>47</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>47</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>47</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>47</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>47</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>47</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>47</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>47</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>47</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>47</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>48</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>48</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>48</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>48</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>48</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>48</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>48</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>48</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>48</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>48</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>48</v>
       </c>
